--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1C5AC9-9510-4927-B8ED-FD9C5B7D87D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62005C75-A423-4A65-ADF8-8A20738BB844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
   <si>
     <t>Спецификация программы:
 Программа для записи студентов (фамилии, имени и возраста), определения минимального и максимального возраста, а также среднего возраста студентов. 
@@ -58,18 +58,29 @@
     <t>негативный</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Passed</t>
   </si>
   <si>
     <t>позитивный</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
+    <t>ошибка компиляции:
+f не может быть преобразован в переменную</t>
+  </si>
+  <si>
     <t>20.5</t>
   </si>
   <si>
+    <t>ошибка компиляции:
+конструктор Студент не определяется</t>
+  </si>
+  <si>
     <t>Тестирование значения "Фамилия"</t>
   </si>
   <si>
@@ -88,13 +99,22 @@
     <t>Иванов-Петров</t>
   </si>
   <si>
+    <t>Иванов-петров</t>
+  </si>
+  <si>
     <t>Ива нов</t>
   </si>
   <si>
+    <t>ошибка</t>
+  </si>
+  <si>
     <t>Иван0в</t>
   </si>
   <si>
-    <t>0</t>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>ошибка компиляции: NULL не может быть преобразован в переменную</t>
   </si>
   <si>
     <t>Тестирование значения "Имя"</t>
@@ -109,7 +129,13 @@
     <t>ИВАН</t>
   </si>
   <si>
+    <t>ивАн</t>
+  </si>
+  <si>
     <t>Иван-Петр</t>
+  </si>
+  <si>
+    <t>Иван-петр</t>
   </si>
   <si>
     <t>Ив ан</t>
@@ -278,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +327,30 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -310,29 +360,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -738,69 +773,69 @@
     <col min="2" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="20" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="81" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="1"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -818,7 +853,9 @@
       <c r="E6" s="6">
         <v>18</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="6">
+        <v>18</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
@@ -837,7 +874,9 @@
       <c r="E7" s="6">
         <v>18</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="6">
+        <v>18</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
@@ -856,7 +895,9 @@
       <c r="E8" s="6">
         <v>18</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="6">
+        <v>18</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
@@ -875,7 +916,9 @@
       <c r="E9" s="6">
         <v>18</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="6">
+        <v>18</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
@@ -894,9 +937,11 @@
       <c r="E10" s="6">
         <v>50</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="6">
+        <v>18</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -913,12 +958,14 @@
       <c r="E11" s="6">
         <v>18</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="6">
+        <v>18</v>
+      </c>
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="51">
       <c r="A12" s="2"/>
       <c r="B12" s="6">
         <v>7</v>
@@ -927,17 +974,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6">
         <v>18</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6">
         <v>8</v>
@@ -946,17 +995,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6">
         <v>18</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="38.25">
       <c r="A14" s="2"/>
       <c r="B14" s="6">
         <v>9</v>
@@ -970,9 +1021,11 @@
       <c r="E14" s="6">
         <v>18</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
@@ -981,47 +1034,47 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="1"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1034,12 +1087,14 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G21" s="6" t="s">
         <v>9</v>
       </c>
@@ -1053,12 +1108,14 @@
         <v>8</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1072,12 +1129,14 @@
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1091,12 +1150,14 @@
         <v>8</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="6" t="s">
         <v>9</v>
       </c>
@@ -1110,14 +1171,16 @@
         <v>10</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G25" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15">
@@ -1129,14 +1192,16 @@
         <v>8</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15">
@@ -1148,17 +1213,19 @@
         <v>8</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G27" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="54" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6">
         <v>8</v>
@@ -1167,10 +1234,14 @@
         <v>8</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1181,47 +1252,47 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="25.5">
       <c r="A34" s="1"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1234,12 +1305,14 @@
         <v>10</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G35" s="6" t="s">
         <v>9</v>
       </c>
@@ -1253,12 +1326,14 @@
         <v>8</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G36" s="6" t="s">
         <v>9</v>
       </c>
@@ -1272,12 +1347,14 @@
         <v>8</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G37" s="6" t="s">
         <v>9</v>
       </c>
@@ -1291,12 +1368,14 @@
         <v>8</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="G38" s="6" t="s">
         <v>9</v>
       </c>
@@ -1310,14 +1389,16 @@
         <v>10</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G39" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
@@ -1329,14 +1410,16 @@
         <v>8</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G40" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15">
@@ -1348,17 +1431,19 @@
         <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G41" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="53.25" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="6">
         <v>8</v>
@@ -1367,10 +1452,14 @@
         <v>8</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G42" s="6" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1470,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="5"/>
     </row>
   </sheetData>
